--- a/result/uniform/uniform1/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform1/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,10 @@
         <v>0.03489238175149569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.0009573850256213977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04776818181139629</v>
+        <v>0.04776818181139628</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>0.4321806107916191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0130726815745651</v>
+        <v>0.01062241905879754</v>
       </c>
       <c r="E4" t="n">
         <v>0.7254844715473092</v>
@@ -525,10 +525,29 @@
         <v>0.4334394958252942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01215099794593373</v>
+        <v>0.009789598803911358</v>
       </c>
       <c r="E5" t="n">
         <v>0.7704142121439549</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7488421052631579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02732875324688148</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7187556818398444</v>
       </c>
     </row>
   </sheetData>

--- a/result/uniform/uniform1/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform1/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/result/uniform/uniform1/LengthAngleSafety.xlsx
+++ b/result/uniform/uniform1/LengthAngleSafety.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03489238175149569</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009573850256213977</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04776818181139628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
